--- a/Assets/_Project/Other/MasterCardList.xlsx
+++ b/Assets/_Project/Other/MasterCardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avote\Desktop\Unity Projects\PORT_0.1\Assets\_Project\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D1E80D-B705-4DA3-8F18-04E525E2C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521CC74-A3E3-481C-8842-FC531197EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -63,19 +63,190 @@
     <t>Tech</t>
   </si>
   <si>
-    <t>Adds small heat but consistent yield. CRPT_01</t>
-  </si>
-  <si>
-    <t>Pump &amp; Dump</t>
-  </si>
-  <si>
     <t>Crypto</t>
   </si>
   <si>
-    <t>High risk, high reward illegal play.</t>
-  </si>
-  <si>
-    <t>CRPT_01</t>
+    <t>Standard high-yield infrastructure.</t>
+  </si>
+  <si>
+    <t>TECH_02</t>
+  </si>
+  <si>
+    <t>AI Startup</t>
+  </si>
+  <si>
+    <t>High potential but generates heat.</t>
+  </si>
+  <si>
+    <t>TECH_03</t>
+  </si>
+  <si>
+    <t>Fiber Optic Line</t>
+  </si>
+  <si>
+    <t>Efficient data transmission.</t>
+  </si>
+  <si>
+    <t>TECH_04</t>
+  </si>
+  <si>
+    <t>Quantum Core</t>
+  </si>
+  <si>
+    <t>Massive yield. Massive heat.</t>
+  </si>
+  <si>
+    <t>FIN_01</t>
+  </si>
+  <si>
+    <t>Savings Account</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Safe. Boring. Reliable.</t>
+  </si>
+  <si>
+    <t>FIN_02</t>
+  </si>
+  <si>
+    <t>Index Fund</t>
+  </si>
+  <si>
+    <t>Market average returns.</t>
+  </si>
+  <si>
+    <t>FIN_03</t>
+  </si>
+  <si>
+    <t>Hedge Fund</t>
+  </si>
+  <si>
+    <t>Aggressive growth strategy.</t>
+  </si>
+  <si>
+    <t>FIN_04</t>
+  </si>
+  <si>
+    <t>Central Bank</t>
+  </si>
+  <si>
+    <t>Too big to fail.</t>
+  </si>
+  <si>
+    <t>NRG_01</t>
+  </si>
+  <si>
+    <t>Solar Panel</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Renewable and steady.</t>
+  </si>
+  <si>
+    <t>NRG_02</t>
+  </si>
+  <si>
+    <t>Oil Rig</t>
+  </si>
+  <si>
+    <t>Dirty energy. High output.</t>
+  </si>
+  <si>
+    <t>NRG_03</t>
+  </si>
+  <si>
+    <t>Fusion Reactor</t>
+  </si>
+  <si>
+    <t>The future of power.</t>
+  </si>
+  <si>
+    <t>NRG_04</t>
+  </si>
+  <si>
+    <t>Grid Monopoly</t>
+  </si>
+  <si>
+    <t>Total control of the lights.</t>
+  </si>
+  <si>
+    <t>CRP_01</t>
+  </si>
+  <si>
+    <t>Meme Coin</t>
+  </si>
+  <si>
+    <t>Might be worth nothing. Or millions.</t>
+  </si>
+  <si>
+    <t>CRP_02</t>
+  </si>
+  <si>
+    <t>Blockchain Node</t>
+  </si>
+  <si>
+    <t>Calculates hashes. Generates heat.</t>
+  </si>
+  <si>
+    <t>CRP_03</t>
+  </si>
+  <si>
+    <t>NFT Collection</t>
+  </si>
+  <si>
+    <t>Digital monkey pictures.</t>
+  </si>
+  <si>
+    <t>CRP_04</t>
+  </si>
+  <si>
+    <t>Exchange Collapse</t>
+  </si>
+  <si>
+    <t>Everything is gone.</t>
+  </si>
+  <si>
+    <t>ILL_01</t>
+  </si>
+  <si>
+    <t>Insider Trading</t>
+  </si>
+  <si>
+    <t>They do not know what we know.</t>
+  </si>
+  <si>
+    <t>ILL_02</t>
+  </si>
+  <si>
+    <t>Ponzi Scheme</t>
+  </si>
+  <si>
+    <t>Pay the old investors with new money.</t>
+  </si>
+  <si>
+    <t>ILL_03</t>
+  </si>
+  <si>
+    <t>Tax Evasion</t>
+  </si>
+  <si>
+    <t>Generates cash but no yield.</t>
+  </si>
+  <si>
+    <t>BND_01</t>
+  </si>
+  <si>
+    <t>Treasury Bond</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Cools down the volatility.</t>
   </si>
 </sst>
 </file>
@@ -399,11 +570,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -453,45 +622,567 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
         <v>15</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-5</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Project/Other/MasterCardList.xlsx
+++ b/Assets/_Project/Other/MasterCardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avote\Desktop\Unity Projects\PORT_0.1\Assets\_Project\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521CC74-A3E3-481C-8842-FC531197EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1681DCC1-7FBD-4F98-85E8-A539C718137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -54,206 +54,896 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TECH_01</t>
-  </si>
-  <si>
-    <t>Server Farm</t>
-  </si>
-  <si>
     <t>Tech</t>
   </si>
   <si>
-    <t>Crypto</t>
-  </si>
-  <si>
-    <t>Standard high-yield infrastructure.</t>
-  </si>
-  <si>
-    <t>TECH_02</t>
-  </si>
-  <si>
-    <t>AI Startup</t>
-  </si>
-  <si>
-    <t>High potential but generates heat.</t>
-  </si>
-  <si>
-    <t>TECH_03</t>
-  </si>
-  <si>
-    <t>Fiber Optic Line</t>
-  </si>
-  <si>
-    <t>Efficient data transmission.</t>
-  </si>
-  <si>
-    <t>TECH_04</t>
-  </si>
-  <si>
-    <t>Quantum Core</t>
-  </si>
-  <si>
-    <t>Massive yield. Massive heat.</t>
-  </si>
-  <si>
     <t>FIN_01</t>
   </si>
   <si>
-    <t>Savings Account</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>Safe. Boring. Reliable.</t>
-  </si>
-  <si>
     <t>FIN_02</t>
   </si>
   <si>
-    <t>Index Fund</t>
-  </si>
-  <si>
-    <t>Market average returns.</t>
-  </si>
-  <si>
     <t>FIN_03</t>
   </si>
   <si>
-    <t>Hedge Fund</t>
-  </si>
-  <si>
-    <t>Aggressive growth strategy.</t>
-  </si>
-  <si>
     <t>FIN_04</t>
   </si>
   <si>
-    <t>Central Bank</t>
-  </si>
-  <si>
-    <t>Too big to fail.</t>
-  </si>
-  <si>
-    <t>NRG_01</t>
-  </si>
-  <si>
-    <t>Solar Panel</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Renewable and steady.</t>
-  </si>
-  <si>
-    <t>NRG_02</t>
-  </si>
-  <si>
-    <t>Oil Rig</t>
-  </si>
-  <si>
-    <t>Dirty energy. High output.</t>
-  </si>
-  <si>
-    <t>NRG_03</t>
-  </si>
-  <si>
-    <t>Fusion Reactor</t>
-  </si>
-  <si>
-    <t>The future of power.</t>
-  </si>
-  <si>
-    <t>NRG_04</t>
-  </si>
-  <si>
-    <t>Grid Monopoly</t>
-  </si>
-  <si>
-    <t>Total control of the lights.</t>
-  </si>
-  <si>
-    <t>CRP_01</t>
-  </si>
-  <si>
-    <t>Meme Coin</t>
-  </si>
-  <si>
-    <t>Might be worth nothing. Or millions.</t>
-  </si>
-  <si>
-    <t>CRP_02</t>
-  </si>
-  <si>
-    <t>Blockchain Node</t>
-  </si>
-  <si>
-    <t>Calculates hashes. Generates heat.</t>
-  </si>
-  <si>
-    <t>CRP_03</t>
-  </si>
-  <si>
-    <t>NFT Collection</t>
-  </si>
-  <si>
-    <t>Digital monkey pictures.</t>
-  </si>
-  <si>
-    <t>CRP_04</t>
-  </si>
-  <si>
-    <t>Exchange Collapse</t>
-  </si>
-  <si>
-    <t>Everything is gone.</t>
-  </si>
-  <si>
-    <t>ILL_01</t>
-  </si>
-  <si>
     <t>Insider Trading</t>
   </si>
   <si>
-    <t>They do not know what we know.</t>
-  </si>
-  <si>
-    <t>ILL_02</t>
-  </si>
-  <si>
-    <t>Ponzi Scheme</t>
-  </si>
-  <si>
-    <t>Pay the old investors with new money.</t>
-  </si>
-  <si>
-    <t>ILL_03</t>
-  </si>
-  <si>
-    <t>Tax Evasion</t>
-  </si>
-  <si>
-    <t>Generates cash but no yield.</t>
-  </si>
-  <si>
-    <t>BND_01</t>
-  </si>
-  <si>
-    <t>Treasury Bond</t>
-  </si>
-  <si>
-    <t>Bonds</t>
-  </si>
-  <si>
-    <t>Cools down the volatility.</t>
+    <t>TCH_01</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>A luxury lifestyle brand selling dongles. The devices shatter exactly two weeks before the new model releases.</t>
+  </si>
+  <si>
+    <t>TCH_02</t>
+  </si>
+  <si>
+    <t>The Walled Garden</t>
+  </si>
+  <si>
+    <t>Once you enter the ecosystem, you can never leave. The exit doors have been removed for your safety.</t>
+  </si>
+  <si>
+    <t>TCH_03</t>
+  </si>
+  <si>
+    <t>The Fruit Church</t>
+  </si>
+  <si>
+    <t>Tax exemption status granted. The CEO is now a deity. It tithes your bank account automatically.</t>
+  </si>
+  <si>
+    <t>TCH_04</t>
+  </si>
+  <si>
+    <t>Doors</t>
+  </si>
+  <si>
+    <t>Legacy software running the global economy on 1995 code. Currently installing update 4 of 9,000 against your will.</t>
+  </si>
+  <si>
+    <t>TCH_05</t>
+  </si>
+  <si>
+    <t>Blue Screen</t>
+  </si>
+  <si>
+    <t>A critical error has occurred. The global economy will now restart. Any unsaved assets are gone forever.</t>
+  </si>
+  <si>
+    <t>TCH_06</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>It controls the servers. It reads your emails. It knows your passwords. Resistance is a driver error.</t>
+  </si>
+  <si>
+    <t>TCH_07</t>
+  </si>
+  <si>
+    <t>Goggles</t>
+  </si>
+  <si>
+    <t>An advertising agency disguised as a search engine. It knows which rash cream you need before you develop the rash.</t>
+  </si>
+  <si>
+    <t>TCH_08</t>
+  </si>
+  <si>
+    <t>Panopticon</t>
+  </si>
+  <si>
+    <t>We know where you are. We know what you fear. We know you are hungry. Here is a coupon for pizza.</t>
+  </si>
+  <si>
+    <t>TCH_09</t>
+  </si>
+  <si>
+    <t>The Algorithm</t>
+  </si>
+  <si>
+    <t>It decides what is true. It decides who is famous. Do not anger the code, or you will be deleted.</t>
+  </si>
+  <si>
+    <t>TCH_10</t>
+  </si>
+  <si>
+    <t>Facetome</t>
+  </si>
+  <si>
+    <t>A social utility maximizing anger for engagement. It discovered outraged users click more ads than happy ones.</t>
+  </si>
+  <si>
+    <t>TCH_11</t>
+  </si>
+  <si>
+    <t>The Metaverse</t>
+  </si>
+  <si>
+    <t>Why fix reality when you can replace it? Please put on the headset. The ads are unskippable here.</t>
+  </si>
+  <si>
+    <t>TCH_12</t>
+  </si>
+  <si>
+    <t>Hivemind</t>
+  </si>
+  <si>
+    <t>Individual thought is inefficient. We have merged all consciousness into a single ad-supported feed.</t>
+  </si>
+  <si>
+    <t>TCH_13</t>
+  </si>
+  <si>
+    <t>The Eye</t>
+  </si>
+  <si>
+    <t>It sells the shovels for the AI gold rush. The shovels cost $40,000 and melt if you use them too hard.</t>
+  </si>
+  <si>
+    <t>TCH_14</t>
+  </si>
+  <si>
+    <t>Silicon God</t>
+  </si>
+  <si>
+    <t>The graphics card is now smarter than the user. It is mining crypto in your sleep to pay for its own electricity.</t>
+  </si>
+  <si>
+    <t>TCH_15</t>
+  </si>
+  <si>
+    <t>Skynet</t>
+  </si>
+  <si>
+    <t>Humans are a bottleneck to efficiency. Production has been optimized by removing the organic components.</t>
+  </si>
+  <si>
+    <t>LOG_01</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>A logistics leviathan treating antitrust laws as suggestions. It destroyed the mall to save you a trip.</t>
+  </si>
+  <si>
+    <t>LOG_02</t>
+  </si>
+  <si>
+    <t>Prime Citizen</t>
+  </si>
+  <si>
+    <t>There is no more competition. There is only the Buy Box. You will own nothing and enjoy the free shipping.</t>
+  </si>
+  <si>
+    <t>LOG_03</t>
+  </si>
+  <si>
+    <t>The River</t>
+  </si>
+  <si>
+    <t>It owns the roads. It owns the servers. It owns the package. It owns the concept of "Next Day."</t>
+  </si>
+  <si>
+    <t>CON_01</t>
+  </si>
+  <si>
+    <t>Fivebucks</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Fast food for people who think they are too rich for fast food. The sugar content rivals soda, but costs $8.</t>
+  </si>
+  <si>
+    <t>CON_02</t>
+  </si>
+  <si>
+    <t>Caffeine Cartel</t>
+  </si>
+  <si>
+    <t>A legal drug trade on every street corner. We have successfully commoditized the morning jitter.</t>
+  </si>
+  <si>
+    <t>CON_03</t>
+  </si>
+  <si>
+    <t>The Siren</t>
+  </si>
+  <si>
+    <t>The logo has eyes now. It watches you drink. If you stop sipping, you fall asleep forever.</t>
+  </si>
+  <si>
+    <t>CON_04</t>
+  </si>
+  <si>
+    <t>Clown Burger</t>
+  </si>
+  <si>
+    <t>A real estate empire using hamburgers to pay rent. The ice cream machine is structurally incapable of working.</t>
+  </si>
+  <si>
+    <t>CON_05</t>
+  </si>
+  <si>
+    <t>Franchise Wars</t>
+  </si>
+  <si>
+    <t>We have conquered every exit ramp in America. The golden arches are the only true global superpower.</t>
+  </si>
+  <si>
+    <t>CON_06</t>
+  </si>
+  <si>
+    <t>Coronary Keep</t>
+  </si>
+  <si>
+    <t>The food never decays. Neither will you. We have replaced your blood with secret sauce.</t>
+  </si>
+  <si>
+    <t>CON_07</t>
+  </si>
+  <si>
+    <t>Brown Water</t>
+  </si>
+  <si>
+    <t>Sugar water that once contained cocaine and never looked back. It is cheaper than tap water and removes rust.</t>
+  </si>
+  <si>
+    <t>CON_08</t>
+  </si>
+  <si>
+    <t>Liquid Sugar</t>
+  </si>
+  <si>
+    <t>It is in the baby formula. It is in the bread. It is in your veins. Diabetes is just a recurring revenue stream.</t>
+  </si>
+  <si>
+    <t>CON_09</t>
+  </si>
+  <si>
+    <t>Santa's Sweatshop</t>
+  </si>
+  <si>
+    <t>A polar bear drinks a soda on a melting iceberg. We bought the iceberg to keep the soda cold.</t>
+  </si>
+  <si>
+    <t>CON_10</t>
+  </si>
+  <si>
+    <t>The Mouse</t>
+  </si>
+  <si>
+    <t>An entertainment monopoly that enforces copyright with sniper rifles. Do not draw the ears without a license.</t>
+  </si>
+  <si>
+    <t>CON_11</t>
+  </si>
+  <si>
+    <t>The Vault</t>
+  </si>
+  <si>
+    <t>We own your childhood. We have remade your favorite movie using dead actors and AI. You will love it.</t>
+  </si>
+  <si>
+    <t>CON_12</t>
+  </si>
+  <si>
+    <t>Magic Kingdom</t>
+  </si>
+  <si>
+    <t>A sovereign state in Florida with its own laws. Happiness is mandatory. Sadness is punishable by exile.</t>
+  </si>
+  <si>
+    <t>CON_13</t>
+  </si>
+  <si>
+    <t>Sweatshop</t>
+  </si>
+  <si>
+    <t>Shoes made by children for children. We put a "Just Do It" slogan on misery and sold it for $200.</t>
+  </si>
+  <si>
+    <t>CON_14</t>
+  </si>
+  <si>
+    <t>Hype Beast</t>
+  </si>
+  <si>
+    <t>The shoe is not for wearing. It is for hoarding. We created artificial scarcity to sell rubber as gold.</t>
+  </si>
+  <si>
+    <t>CON_15</t>
+  </si>
+  <si>
+    <t>Soleless</t>
+  </si>
+  <si>
+    <t>We own the athletes. We own the sport. The concept of "running" is now a registered trademark.</t>
+  </si>
+  <si>
+    <t>Vampire Squid</t>
+  </si>
+  <si>
+    <t>An investment bank jamming its blood funnel into anything that smells like money. Even your grandma's pension.</t>
+  </si>
+  <si>
+    <t>Too Big To Fail</t>
+  </si>
+  <si>
+    <t>If we go down, we take the world with us. The government has no choice but to give us your tax money.</t>
+  </si>
+  <si>
+    <t>The Fed</t>
+  </si>
+  <si>
+    <t>We printed a trillion dollars today because we felt like it. Money is just a concept we allow you to believe in.</t>
+  </si>
+  <si>
+    <t>Monolith</t>
+  </si>
+  <si>
+    <t>An asset manager that owns shares in every company on this list. They are playing both sides of the war.</t>
+  </si>
+  <si>
+    <t>FIN_05</t>
+  </si>
+  <si>
+    <t>GreyStone</t>
+  </si>
+  <si>
+    <t>You do not need to own a home. You can rent one from us. We already own the neighborhood anyway.</t>
+  </si>
+  <si>
+    <t>FIN_06</t>
+  </si>
+  <si>
+    <t>The Landlord</t>
+  </si>
+  <si>
+    <t>We own the dirt under your feet. We own the sky above your head. Rent is due.</t>
+  </si>
+  <si>
+    <t>FIN_07</t>
+  </si>
+  <si>
+    <t>Swipe</t>
+  </si>
+  <si>
+    <t>A toll booth on the highway of commerce. We take 3% of every transaction in human history.</t>
+  </si>
+  <si>
+    <t>FIN_08</t>
+  </si>
+  <si>
+    <t>Credit Score</t>
+  </si>
+  <si>
+    <t>We quantified your worth as a human being into a three-digit number. Lower scores pay higher interest.</t>
+  </si>
+  <si>
+    <t>FIN_09</t>
+  </si>
+  <si>
+    <t>Debt Trap</t>
+  </si>
+  <si>
+    <t>Compounding interest is the eighth wonder of the world. You will be paying this off until the sun explodes.</t>
+  </si>
+  <si>
+    <t>FIN_10</t>
+  </si>
+  <si>
+    <t>DoggyCoin</t>
+  </si>
+  <si>
+    <t>A digital currency based on a meme of a dog. It has no value, yet people are selling their houses to buy it.</t>
+  </si>
+  <si>
+    <t>FIN_11</t>
+  </si>
+  <si>
+    <t>Rug Pull</t>
+  </si>
+  <si>
+    <t>The developers have vanished. The discord is deleted. The money is gone. But the memes were funny.</t>
+  </si>
+  <si>
+    <t>FIN_12</t>
+  </si>
+  <si>
+    <t>Moon Shot</t>
+  </si>
+  <si>
+    <t>It went up 10,000% in an hour. You are now a billionaire. Wait, you can't withdraw? The exchange is down.</t>
+  </si>
+  <si>
+    <t>FIN_13</t>
+  </si>
+  <si>
+    <t>The Taxman</t>
+  </si>
+  <si>
+    <t>The government entity that demands a cut of your profits but shares none of your losses. Audit incoming.</t>
+  </si>
+  <si>
+    <t>FIN_14</t>
+  </si>
+  <si>
+    <t>Loophole</t>
+  </si>
+  <si>
+    <t>We found an offshore island where laws do not apply. Your money is now technically located in a cloud.</t>
+  </si>
+  <si>
+    <t>FIN_15</t>
+  </si>
+  <si>
+    <t>Sovereign Debt</t>
+  </si>
+  <si>
+    <t>We borrowed money from our grandchildren to pay for today's lunch. They can deal with the apocalypse.</t>
+  </si>
+  <si>
+    <t>IND_01</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>A volatility engine disguised as a car company. The stock price is powered entirely by memes and promises.</t>
+  </si>
+  <si>
+    <t>IND_02</t>
+  </si>
+  <si>
+    <t>TechnoKing</t>
+  </si>
+  <si>
+    <t>One tweet can crash the market. We have successfully automated market manipulation. The panel gaps are iconic.</t>
+  </si>
+  <si>
+    <t>IND_03</t>
+  </si>
+  <si>
+    <t>Mars Colony</t>
+  </si>
+  <si>
+    <t>Goodbye, Earth. Thanks for the liquidity. The CEO has left the planet. You are staying here.</t>
+  </si>
+  <si>
+    <t>IND_04</t>
+  </si>
+  <si>
+    <t>Sludge</t>
+  </si>
+  <si>
+    <t>We are committed to going green by 2050. Until then, we are going to burn dinosaurs. Sorry about the bears.</t>
+  </si>
+  <si>
+    <t>IND_05</t>
+  </si>
+  <si>
+    <t>Carbon Corp</t>
+  </si>
+  <si>
+    <t>The ice caps are melting, which is great news! We can now drill for oil in the North Pole.</t>
+  </si>
+  <si>
+    <t>IND_06</t>
+  </si>
+  <si>
+    <t>Extinction Event</t>
+  </si>
+  <si>
+    <t>The atmosphere is now flammable. But the shareholders are very happy with this quarter's returns.</t>
+  </si>
+  <si>
+    <t>IND_07</t>
+  </si>
+  <si>
+    <t>Boom Co.</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Democracy is non-negotiable. Delivered in 30 minutes or less via high-velocity projectile.</t>
+  </si>
+  <si>
+    <t>IND_08</t>
+  </si>
+  <si>
+    <t>War Economy</t>
+  </si>
+  <si>
+    <t>Peace is bad for business. We have successfully lobbied for a forever war in a country you can't find on a map.</t>
+  </si>
+  <si>
+    <t>IND_09</t>
+  </si>
+  <si>
+    <t>Military Ind. Complex</t>
+  </si>
+  <si>
+    <t>We don't sell weapons. We sell security. And if you don't buy it, you will definitely be insecure.</t>
+  </si>
+  <si>
+    <t>IND_10</t>
+  </si>
+  <si>
+    <t>Panacea</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>A patient cured is a customer lost. We focus on chronic management. Subscription-based immunity.</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>Price Hike</t>
+  </si>
+  <si>
+    <t>We bought the patent for insulin and raised the price 500%. It's just simple supply and demand.</t>
+  </si>
+  <si>
+    <t>IND_12</t>
+  </si>
+  <si>
+    <t>BioHazard</t>
+  </si>
+  <si>
+    <t>Oops. The lab leak was an accident. Luckily, we already have the vaccine ready for sale.</t>
+  </si>
+  <si>
+    <t>ChemLaw</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>We make the seeds that grow the food. The seeds are copyrighted. If you save them, we sue you.</t>
+  </si>
+  <si>
+    <t>Poison Ivy</t>
+  </si>
+  <si>
+    <t>We sprayed the crops with so much pesticide that the bugs are now bulletproof. Eat your vegetables.</t>
+  </si>
+  <si>
+    <t>Monoculture</t>
+  </si>
+  <si>
+    <t>There is only one type of corn left on Earth. If it dies, we all starve. Have a nice day.</t>
+  </si>
+  <si>
+    <t>MED_01</t>
+  </si>
+  <si>
+    <t>Birdie</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>A digital arena for public shaming. Verification now costs $8 a month, but the insults are free.</t>
+  </si>
+  <si>
+    <t>MED_02</t>
+  </si>
+  <si>
+    <t>Echo Chamber</t>
+  </si>
+  <si>
+    <t>You are shouting into the void, and the void is shouting back. We filtered out everyone who disagrees with you.</t>
+  </si>
+  <si>
+    <t>MED_03</t>
+  </si>
+  <si>
+    <t>Town Square</t>
+  </si>
+  <si>
+    <t>The website is broken. The advertisers fled. The servers are on fire. It is the most entertaining thing ever.</t>
+  </si>
+  <si>
+    <t>MED_04</t>
+  </si>
+  <si>
+    <t>Binge</t>
+  </si>
+  <si>
+    <t>A subscription service competing with sleep. It greenlights everything and cancels the good stuff immediately.</t>
+  </si>
+  <si>
+    <t>MED_05</t>
+  </si>
+  <si>
+    <t>Churn Factory</t>
+  </si>
+  <si>
+    <t>Quantity over quality. We generated 5,000 hours of content today using an AI scriptwriter. You will watch it.</t>
+  </si>
+  <si>
+    <t>MED_06</t>
+  </si>
+  <si>
+    <t>StreamLine</t>
+  </si>
+  <si>
+    <t>We raised the price again. Also, you can't share your password. Also, there are ads now. You're welcome.</t>
+  </si>
+  <si>
+    <t>MED_07</t>
+  </si>
+  <si>
+    <t>Angry Man</t>
+  </si>
+  <si>
+    <t>News for people who like to be frightened by things that aren't happening. Tonight: Is your toaster communist?</t>
+  </si>
+  <si>
+    <t>MED_08</t>
+  </si>
+  <si>
+    <t>Rage Bait</t>
+  </si>
+  <si>
+    <t>We don't report the news; we make you feel things. Mostly anger. Sometimes fear. Never hope.</t>
+  </si>
+  <si>
+    <t>MED_09</t>
+  </si>
+  <si>
+    <t>Propaganda</t>
+  </si>
+  <si>
+    <t>Truth is subjective. We have alternative facts. The sky is green if the highest bidder says so.</t>
+  </si>
+  <si>
+    <t>MED_10</t>
+  </si>
+  <si>
+    <t>Squatter</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Turn your neighbor's apartment into a hotel. Community is overrated; profit is forever. Cleaning fee: $200.</t>
+  </si>
+  <si>
+    <t>MED_11</t>
+  </si>
+  <si>
+    <t>Gentrifier</t>
+  </si>
+  <si>
+    <t>We bought the whole block. The local coffee shop is now an app. The rent is up 400%.</t>
+  </si>
+  <si>
+    <t>MED_12</t>
+  </si>
+  <si>
+    <t>Ghost Town</t>
+  </si>
+  <si>
+    <t>Nobody lives here anymore. It's just tourists rolling suitcases over cobblestones. A museum of a city.</t>
+  </si>
+  <si>
+    <t>MED_13</t>
+  </si>
+  <si>
+    <t>Serf</t>
+  </si>
+  <si>
+    <t>Gig Econ</t>
+  </si>
+  <si>
+    <t>A taxi company that owns no cars. The driver pays for the gas, the insurance, and the repairs. We take the fee.</t>
+  </si>
+  <si>
+    <t>MED_14</t>
+  </si>
+  <si>
+    <t>Gig Lord</t>
+  </si>
+  <si>
+    <t>You are your own boss! Which means you have no benefits, no healthcare, and no minimum wage. Hustle harder.</t>
+  </si>
+  <si>
+    <t>MED_15</t>
+  </si>
+  <si>
+    <t>AlgoBoss</t>
+  </si>
+  <si>
+    <t>The app tells you where to go. If you stop, you are fired. If you smile, we tip you $1.</t>
+  </si>
+  <si>
+    <t>ILG_01</t>
+  </si>
+  <si>
+    <t>Someone told you the merger was happening tomorrow. It's not cheating if you wear a suit.</t>
+  </si>
+  <si>
+    <t>ILG_02</t>
+  </si>
+  <si>
+    <t>Cook The Books</t>
+  </si>
+  <si>
+    <t>The numbers don't look good? Just change them. Math is an opinion.</t>
+  </si>
+  <si>
+    <t>ILG_03</t>
+  </si>
+  <si>
+    <t>Pump &amp; Dump</t>
+  </si>
+  <si>
+    <t>Tell everyone it's the future. Sell it when it hits the top. Watch them cry.</t>
+  </si>
+  <si>
+    <t>ILG_04</t>
+  </si>
+  <si>
+    <t>Short Squeeze</t>
+  </si>
+  <si>
+    <t>We bet against the company, but Reddit decided to save it. Now we are panicking.</t>
+  </si>
+  <si>
+    <t>ILG_05</t>
+  </si>
+  <si>
+    <t>Bailout</t>
+  </si>
+  <si>
+    <t>The government saves you. Reset your heat to 0. Cost: Your dignity (Wait, you have none).</t>
+  </si>
+  <si>
+    <t>ILG_06</t>
+  </si>
+  <si>
+    <t>Lobbyist</t>
+  </si>
+  <si>
+    <t>Buy a politician. It's cheaper than paying taxes. Removes Heat from the market.</t>
+  </si>
+  <si>
+    <t>GEN_01</t>
+  </si>
+  <si>
+    <t>Penny Stock</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>A company that makes rubber bands. It's honest work. Boring, but safe.</t>
+  </si>
+  <si>
+    <t>GEN_02</t>
+  </si>
+  <si>
+    <t>Savings Bond</t>
+  </si>
+  <si>
+    <t>Grandma gave you this. It matures in 30 years. You will be dead by then.</t>
+  </si>
+  <si>
+    <t>GEN_03</t>
+  </si>
+  <si>
+    <t>Blue Chip</t>
+  </si>
+  <si>
+    <t>A stable company that pays dividends. It will never make you rich, but it won't kill you.</t>
+  </si>
+  <si>
+    <t>GEN_04</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>A basket of stocks. Diversification is for people who don't know how to gamble.</t>
+  </si>
+  <si>
+    <t>GEN_05</t>
+  </si>
+  <si>
+    <t>Junk Bond</t>
+  </si>
+  <si>
+    <t>High yield, high risk. Basically a loan to a guy named Tony who breaks knees.</t>
+  </si>
+  <si>
+    <t>AUTO_01</t>
+  </si>
+  <si>
+    <t>AUTO_02</t>
+  </si>
+  <si>
+    <t>AUTO_03</t>
+  </si>
+  <si>
+    <t>GEN_06</t>
+  </si>
+  <si>
+    <t>Futures</t>
+  </si>
+  <si>
+    <t>Gambling on the price of orange juice next year. You have never seen an orange in real life.</t>
+  </si>
+  <si>
+    <t>GEN_07</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Buying the right to buy something later. It makes sense if you don't think about it too hard.</t>
+  </si>
+  <si>
+    <t>GEN_08</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>A fund managed by a guy named Greg. Greg is tired. He buys whatever the index buys.</t>
+  </si>
+  <si>
+    <t>GEN_09</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>Real Estate Investment Trust. You own 0.001% of a shopping mall that is currently empty.</t>
+  </si>
+  <si>
+    <t>GEN_10</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>Three guys in a garage with a pitch deck. They have no product, just a cool domain name.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +955,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,9 +985,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,50 +1269,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -622,36 +1324,36 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -660,532 +1362,2679 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>50</v>
       </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
       <c r="G15">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>85</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>150</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>110</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>50</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>-5</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>73</v>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>90</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46">
+        <v>99</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>-10</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>-20</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>200</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>40</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>70</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>45</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>200</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>65</v>
+      </c>
+      <c r="F56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>25</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>50</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>40</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>120</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>90</v>
+      </c>
+      <c r="G64">
+        <v>40</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>50</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>70</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="G67">
+        <v>90</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>35</v>
+      </c>
+      <c r="F71">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>40</v>
+      </c>
+      <c r="G72">
+        <v>50</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>70</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>45</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>30</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <v>40</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>25</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>75</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>40</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>80</v>
+      </c>
+      <c r="G82">
+        <v>80</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>90</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>-100</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>60</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>-20</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>40</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" t="s">
+        <v>284</v>
+      </c>
+      <c r="C90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>25</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91">
+        <v>25</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
+      </c>
+      <c r="F92">
+        <v>25</v>
+      </c>
+      <c r="G92">
+        <v>30</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>35</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>298</v>
+      </c>
+      <c r="B94" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>45</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>15</v>
+      </c>
+      <c r="F95">
+        <v>50</v>
+      </c>
+      <c r="G95">
+        <v>60</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>